--- a/Población LGBT+ (ENDISEG) 2021.xlsx
+++ b/Población LGBT+ (ENDISEG) 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\misDocs\2025\INEGI\QGIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70A7B2F-BBFE-42E9-8EEB-8EBAFE933753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214744EB-80A8-4C34-8E67-E6E4769084D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36780" yWindow="1215" windowWidth="20145" windowHeight="14475" xr2:uid="{044E1908-2AE4-4FAF-B0BB-B65E77690981}"/>
+    <workbookView xWindow="32925" yWindow="1590" windowWidth="20145" windowHeight="14475" xr2:uid="{044E1908-2AE4-4FAF-B0BB-B65E77690981}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="2" r:id="rId1"/>
@@ -473,9 +473,6 @@
     <t>De 5.0 a 5.9</t>
   </si>
   <si>
-    <t xml:space="preserve">Inferior a 4.0 </t>
-  </si>
-  <si>
     <t>De 4.0 a 4.9</t>
   </si>
   <si>
@@ -486,6 +483,9 @@
   </si>
   <si>
     <t>Tabla</t>
+  </si>
+  <si>
+    <t>Inferior a 4.0</t>
   </si>
 </sst>
 </file>
@@ -874,8 +874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0D0A4A-B05C-4012-B598-E299E4531A57}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:G11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,13 +891,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>139</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -919,7 +919,7 @@
         <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -961,7 +961,7 @@
         <v>122</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -1003,7 +1003,7 @@
         <v>126</v>
       </c>
       <c r="B9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -1017,7 +1017,7 @@
         <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -1045,7 +1045,7 @@
         <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -1075,7 +1075,7 @@
         <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -1089,7 +1089,7 @@
         <v>88</v>
       </c>
       <c r="B15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -1103,7 +1103,7 @@
         <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -1117,7 +1117,7 @@
         <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -1145,7 +1145,7 @@
         <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -1285,7 +1285,7 @@
         <v>109</v>
       </c>
       <c r="B29" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -1313,7 +1313,7 @@
         <v>84</v>
       </c>
       <c r="B31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -1374,7 +1374,7 @@
         <v>133</v>
       </c>
       <c r="B1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/Población LGBT+ (ENDISEG) 2021.xlsx
+++ b/Población LGBT+ (ENDISEG) 2021.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\misDocs\2025\INEGI\QGIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214744EB-80A8-4C34-8E67-E6E4769084D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0B7D02-6F70-44AC-93FB-1A76F63FAA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32925" yWindow="1590" windowWidth="20145" windowHeight="14475" xr2:uid="{044E1908-2AE4-4FAF-B0BB-B65E77690981}"/>
+    <workbookView xWindow="35070" yWindow="60" windowWidth="20145" windowHeight="14475" activeTab="1" xr2:uid="{044E1908-2AE4-4FAF-B0BB-B65E77690981}"/>
   </bookViews>
   <sheets>
-    <sheet name="Datos" sheetId="2" r:id="rId1"/>
-    <sheet name="Composicion" sheetId="3" r:id="rId2"/>
+    <sheet name="Composicion" sheetId="3" r:id="rId1"/>
+    <sheet name="Datos" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja1" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Datos!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Datos!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Hoja1!$A$5:$I$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="149">
   <si>
     <t>OBJECTID</t>
   </si>
@@ -486,6 +486,9 @@
   </si>
   <si>
     <t>Inferior a 4.0</t>
+  </si>
+  <si>
+    <t>eum</t>
   </si>
 </sst>
 </file>
@@ -871,11 +874,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6EA6F89-5ED1-4336-BB4F-7DCCC1E1812B}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6">
+        <v>5.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0D0A4A-B05C-4012-B598-E299E4531A57}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,7 +981,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="4">
-        <v>7.3</v>
+        <v>95.3</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1348,65 +1418,6 @@
       </c>
       <c r="D33">
         <v>6.4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6EA6F89-5ED1-4336-BB4F-7DCCC1E1812B}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B5" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/Población LGBT+ (ENDISEG) 2021.xlsx
+++ b/Población LGBT+ (ENDISEG) 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\misDocs\2025\INEGI\QGIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0B7D02-6F70-44AC-93FB-1A76F63FAA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59EBFA58-DC88-475B-95B7-19C5A8A24E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35070" yWindow="60" windowWidth="20145" windowHeight="14475" activeTab="1" xr2:uid="{044E1908-2AE4-4FAF-B0BB-B65E77690981}"/>
+    <workbookView xWindow="35070" yWindow="60" windowWidth="20145" windowHeight="14475" xr2:uid="{044E1908-2AE4-4FAF-B0BB-B65E77690981}"/>
   </bookViews>
   <sheets>
     <sheet name="Composicion" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="151">
   <si>
     <t>OBJECTID</t>
   </si>
@@ -489,6 +489,12 @@
   </si>
   <si>
     <t>eum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inferior a 4.0  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">De 5.0 a 5.9  </t>
   </si>
 </sst>
 </file>
@@ -877,9 +883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6EA6F89-5ED1-4336-BB4F-7DCCC1E1812B}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -944,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0D0A4A-B05C-4012-B598-E299E4531A57}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1313,7 +1317,7 @@
         <v>105</v>
       </c>
       <c r="B26" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -1355,7 +1359,7 @@
         <v>109</v>
       </c>
       <c r="B29" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C29">
         <v>5</v>
